--- a/drishti-tools/upload_forms/examples/9 B.T Indira Vajamangala.xlsx
+++ b/drishti-tools/upload_forms/examples/9 B.T Indira Vajamangala.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="4035" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="4035"/>
   </bookViews>
   <sheets>
     <sheet name="EC register" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EC register'!$B$1:$R$1147</definedName>
     <definedName name="House_Hold_Information">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9569" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9691" uniqueCount="1552">
   <si>
     <t/>
   </si>
@@ -4685,6 +4685,9 @@
   </si>
   <si>
     <t>08/08/2001</t>
+  </si>
+  <si>
+    <t>29230040104a</t>
   </si>
 </sst>
 </file>
@@ -4814,7 +4817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -4822,8 +4825,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4876,8 +4880,11 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
@@ -4885,6 +4892,7 @@
     <cellStyle name="Normal_ANC" xfId="6"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
     <cellStyle name="Normal_Sheet1_1" xfId="5"/>
+    <cellStyle name="Normal_Sheet4" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5183,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R1147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18439,6 +18447,9 @@
       <c r="A380" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B380" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C380" s="1" t="s">
         <v>814</v>
       </c>
@@ -18471,6 +18482,9 @@
       <c r="A381" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B381" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C381" s="1" t="s">
         <v>814</v>
       </c>
@@ -18500,6 +18514,9 @@
       <c r="A382" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B382" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C382" s="1" t="s">
         <v>814</v>
       </c>
@@ -18526,6 +18543,9 @@
       <c r="A383" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B383" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C383" s="1" t="s">
         <v>814</v>
       </c>
@@ -18558,6 +18578,9 @@
       <c r="A384" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B384" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C384" s="1" t="s">
         <v>814</v>
       </c>
@@ -18596,6 +18619,9 @@
       <c r="A385" s="1" t="s">
         <v>1309</v>
       </c>
+      <c r="B385" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C385" s="1" t="s">
         <v>814</v>
       </c>
@@ -18628,6 +18654,9 @@
       <c r="A386" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="B386" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C386" s="1" t="s">
         <v>814</v>
       </c>
@@ -18660,6 +18689,9 @@
       <c r="A387" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B387" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C387" s="1" t="s">
         <v>814</v>
       </c>
@@ -18692,6 +18724,9 @@
       <c r="A388" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B388" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C388" s="1" t="s">
         <v>814</v>
       </c>
@@ -18724,6 +18759,9 @@
       <c r="A389" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="B389" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C389" s="1" t="s">
         <v>814</v>
       </c>
@@ -18756,6 +18794,9 @@
       <c r="A390" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B390" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C390" s="1" t="s">
         <v>814</v>
       </c>
@@ -18788,6 +18829,9 @@
       <c r="A391" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B391" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C391" s="1" t="s">
         <v>814</v>
       </c>
@@ -18820,6 +18864,9 @@
       <c r="A392" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B392" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C392" s="1" t="s">
         <v>814</v>
       </c>
@@ -18852,6 +18899,9 @@
       <c r="A393" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B393" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C393" s="1" t="s">
         <v>814</v>
       </c>
@@ -18884,6 +18934,9 @@
       <c r="A394" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B394" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C394" s="1" t="s">
         <v>814</v>
       </c>
@@ -18916,6 +18969,9 @@
       <c r="A395" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B395" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C395" s="1" t="s">
         <v>814</v>
       </c>
@@ -18948,6 +19004,9 @@
       <c r="A396" s="1" t="s">
         <v>1277</v>
       </c>
+      <c r="B396" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C396" s="1" t="s">
         <v>814</v>
       </c>
@@ -18980,6 +19039,9 @@
       <c r="A397" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B397" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C397" s="1" t="s">
         <v>814</v>
       </c>
@@ -19012,6 +19074,9 @@
       <c r="A398" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="B398" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C398" s="1" t="s">
         <v>814</v>
       </c>
@@ -19044,6 +19109,9 @@
       <c r="A399" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B399" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C399" s="1" t="s">
         <v>814</v>
       </c>
@@ -19076,6 +19144,9 @@
       <c r="A400" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B400" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C400" s="1" t="s">
         <v>814</v>
       </c>
@@ -19108,6 +19179,9 @@
       <c r="A401" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B401" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C401" s="1" t="s">
         <v>814</v>
       </c>
@@ -19140,6 +19214,9 @@
       <c r="A402" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="B402" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C402" s="1" t="s">
         <v>814</v>
       </c>
@@ -19172,6 +19249,9 @@
       <c r="A403" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B403" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C403" s="1" t="s">
         <v>814</v>
       </c>
@@ -19204,6 +19284,9 @@
       <c r="A404" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="B404" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C404" s="1" t="s">
         <v>814</v>
       </c>
@@ -19236,6 +19319,9 @@
       <c r="A405" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="B405" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C405" s="1" t="s">
         <v>814</v>
       </c>
@@ -19268,6 +19354,9 @@
       <c r="A406" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B406" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C406" s="1" t="s">
         <v>814</v>
       </c>
@@ -19303,6 +19392,9 @@
       <c r="A407" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B407" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C407" s="1" t="s">
         <v>814</v>
       </c>
@@ -19335,6 +19427,9 @@
       <c r="A408" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B408" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C408" s="1" t="s">
         <v>814</v>
       </c>
@@ -19367,6 +19462,9 @@
       <c r="A409" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B409" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C409" s="1" t="s">
         <v>814</v>
       </c>
@@ -19399,6 +19497,9 @@
       <c r="A410" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B410" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C410" s="1" t="s">
         <v>814</v>
       </c>
@@ -19425,6 +19526,9 @@
       <c r="A411" s="1" t="s">
         <v>1310</v>
       </c>
+      <c r="B411" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C411" s="1" t="s">
         <v>814</v>
       </c>
@@ -19457,6 +19561,9 @@
       <c r="A412" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B412" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C412" s="1" t="s">
         <v>814</v>
       </c>
@@ -19489,6 +19596,9 @@
       <c r="A413" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B413" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C413" s="1" t="s">
         <v>814</v>
       </c>
@@ -19521,6 +19631,9 @@
       <c r="A414" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="B414" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C414" s="1" t="s">
         <v>814</v>
       </c>
@@ -19553,6 +19666,9 @@
       <c r="A415" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="B415" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C415" s="1" t="s">
         <v>814</v>
       </c>
@@ -19585,6 +19701,9 @@
       <c r="A416" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B416" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C416" s="1" t="s">
         <v>814</v>
       </c>
@@ -19617,6 +19736,9 @@
       <c r="A417" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B417" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C417" s="1" t="s">
         <v>814</v>
       </c>
@@ -19649,6 +19771,9 @@
       <c r="A418" s="1" t="s">
         <v>1309</v>
       </c>
+      <c r="B418" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C418" s="1" t="s">
         <v>814</v>
       </c>
@@ -19681,6 +19806,9 @@
       <c r="A419" s="1" t="s">
         <v>1308</v>
       </c>
+      <c r="B419" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C419" s="1" t="s">
         <v>814</v>
       </c>
@@ -19713,6 +19841,9 @@
       <c r="A420" s="1" t="s">
         <v>1265</v>
       </c>
+      <c r="B420" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C420" s="1" t="s">
         <v>814</v>
       </c>
@@ -19745,6 +19876,9 @@
       <c r="A421" s="1" t="s">
         <v>1265</v>
       </c>
+      <c r="B421" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C421" s="1" t="s">
         <v>814</v>
       </c>
@@ -19780,6 +19914,9 @@
       <c r="A422" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B422" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C422" s="1" t="s">
         <v>814</v>
       </c>
@@ -19812,6 +19949,9 @@
       <c r="A423" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B423" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C423" s="1" t="s">
         <v>814</v>
       </c>
@@ -19844,6 +19984,9 @@
       <c r="A424" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B424" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C424" s="1" t="s">
         <v>814</v>
       </c>
@@ -19876,6 +20019,9 @@
       <c r="A425" s="1" t="s">
         <v>1280</v>
       </c>
+      <c r="B425" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C425" s="1" t="s">
         <v>814</v>
       </c>
@@ -19908,6 +20054,9 @@
       <c r="A426" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B426" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C426" s="1" t="s">
         <v>814</v>
       </c>
@@ -19940,6 +20089,9 @@
       <c r="A427" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B427" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C427" s="1" t="s">
         <v>814</v>
       </c>
@@ -19972,6 +20124,9 @@
       <c r="A428" s="1" t="s">
         <v>1272</v>
       </c>
+      <c r="B428" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C428" s="1" t="s">
         <v>814</v>
       </c>
@@ -20004,6 +20159,9 @@
       <c r="A429" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B429" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C429" s="1" t="s">
         <v>814</v>
       </c>
@@ -20030,6 +20188,9 @@
       <c r="A430" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B430" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C430" s="1" t="s">
         <v>814</v>
       </c>
@@ -20065,6 +20226,9 @@
       <c r="A431" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B431" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C431" s="1" t="s">
         <v>814</v>
       </c>
@@ -20097,6 +20261,9 @@
       <c r="A432" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B432" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C432" s="1" t="s">
         <v>814</v>
       </c>
@@ -20123,6 +20290,9 @@
       <c r="A433" s="1" t="s">
         <v>1309</v>
       </c>
+      <c r="B433" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C433" s="1" t="s">
         <v>814</v>
       </c>
@@ -20155,6 +20325,9 @@
       <c r="A434" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B434" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C434" s="1" t="s">
         <v>814</v>
       </c>
@@ -20187,6 +20360,9 @@
       <c r="A435" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B435" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C435" s="1" t="s">
         <v>814</v>
       </c>
@@ -20219,6 +20395,9 @@
       <c r="A436" s="1" t="s">
         <v>1281</v>
       </c>
+      <c r="B436" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C436" s="1" t="s">
         <v>814</v>
       </c>
@@ -20251,6 +20430,9 @@
       <c r="A437" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B437" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C437" s="1" t="s">
         <v>814</v>
       </c>
@@ -20283,6 +20465,9 @@
       <c r="A438" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B438" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C438" s="1" t="s">
         <v>814</v>
       </c>
@@ -20315,6 +20500,9 @@
       <c r="A439" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B439" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C439" s="1" t="s">
         <v>814</v>
       </c>
@@ -20347,6 +20535,9 @@
       <c r="A440" s="1" t="s">
         <v>1270</v>
       </c>
+      <c r="B440" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C440" s="1" t="s">
         <v>814</v>
       </c>
@@ -20379,6 +20570,9 @@
       <c r="A441" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B441" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C441" s="1" t="s">
         <v>814</v>
       </c>
@@ -20411,6 +20605,9 @@
       <c r="A442" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B442" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C442" s="1" t="s">
         <v>814</v>
       </c>
@@ -20443,6 +20640,9 @@
       <c r="A443" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B443" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C443" s="1" t="s">
         <v>814</v>
       </c>
@@ -20478,6 +20678,9 @@
       <c r="A444" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B444" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C444" s="1" t="s">
         <v>814</v>
       </c>
@@ -20513,6 +20716,9 @@
       <c r="A445" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="B445" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C445" s="1" t="s">
         <v>814</v>
       </c>
@@ -20539,6 +20745,9 @@
       <c r="A446" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B446" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C446" s="1" t="s">
         <v>814</v>
       </c>
@@ -20571,6 +20780,9 @@
       <c r="A447" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B447" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C447" s="1" t="s">
         <v>814</v>
       </c>
@@ -20603,6 +20815,9 @@
       <c r="A448" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B448" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C448" s="1" t="s">
         <v>814</v>
       </c>
@@ -20635,6 +20850,9 @@
       <c r="A449" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B449" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C449" s="1" t="s">
         <v>814</v>
       </c>
@@ -20667,6 +20885,9 @@
       <c r="A450" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="B450" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C450" s="1" t="s">
         <v>814</v>
       </c>
@@ -20699,6 +20920,9 @@
       <c r="A451" s="1" t="s">
         <v>1309</v>
       </c>
+      <c r="B451" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C451" s="1" t="s">
         <v>814</v>
       </c>
@@ -20728,6 +20952,9 @@
       <c r="A452" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B452" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C452" s="1" t="s">
         <v>814</v>
       </c>
@@ -20760,6 +20987,9 @@
       <c r="A453" s="1" t="s">
         <v>1280</v>
       </c>
+      <c r="B453" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C453" s="1" t="s">
         <v>814</v>
       </c>
@@ -20792,6 +21022,9 @@
       <c r="A454" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B454" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C454" s="1" t="s">
         <v>814</v>
       </c>
@@ -20827,6 +21060,9 @@
       <c r="A455" s="1" t="s">
         <v>1280</v>
       </c>
+      <c r="B455" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C455" s="1" t="s">
         <v>814</v>
       </c>
@@ -20859,6 +21095,9 @@
       <c r="A456" s="1" t="s">
         <v>1279</v>
       </c>
+      <c r="B456" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C456" s="1" t="s">
         <v>814</v>
       </c>
@@ -20891,6 +21130,9 @@
       <c r="A457" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="B457" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C457" s="1" t="s">
         <v>814</v>
       </c>
@@ -20923,6 +21165,9 @@
       <c r="A458" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="B458" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C458" s="1" t="s">
         <v>814</v>
       </c>
@@ -20955,6 +21200,9 @@
       <c r="A459" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="B459" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C459" s="1" t="s">
         <v>814</v>
       </c>
@@ -20987,6 +21235,9 @@
       <c r="A460" s="1" t="s">
         <v>1265</v>
       </c>
+      <c r="B460" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C460" s="1" t="s">
         <v>814</v>
       </c>
@@ -21019,6 +21270,9 @@
       <c r="A461" s="1" t="s">
         <v>1265</v>
       </c>
+      <c r="B461" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C461" s="1" t="s">
         <v>814</v>
       </c>
@@ -21051,6 +21305,9 @@
       <c r="A462" s="1" t="s">
         <v>1265</v>
       </c>
+      <c r="B462" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C462" s="1" t="s">
         <v>814</v>
       </c>
@@ -21083,6 +21340,9 @@
       <c r="A463" s="1" t="s">
         <v>1265</v>
       </c>
+      <c r="B463" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C463" s="1" t="s">
         <v>814</v>
       </c>
@@ -21115,6 +21375,9 @@
       <c r="A464" s="1" t="s">
         <v>1277</v>
       </c>
+      <c r="B464" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C464" s="1" t="s">
         <v>814</v>
       </c>
@@ -21147,6 +21410,9 @@
       <c r="A465" s="1" t="s">
         <v>1277</v>
       </c>
+      <c r="B465" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C465" s="1" t="s">
         <v>814</v>
       </c>
@@ -21179,6 +21445,9 @@
       <c r="A466" s="1" t="s">
         <v>1281</v>
       </c>
+      <c r="B466" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C466" s="1" t="s">
         <v>814</v>
       </c>
@@ -21214,6 +21483,9 @@
       <c r="A467" s="1" t="s">
         <v>1281</v>
       </c>
+      <c r="B467" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C467" s="1" t="s">
         <v>814</v>
       </c>
@@ -21246,6 +21518,9 @@
       <c r="A468" s="1" t="s">
         <v>1281</v>
       </c>
+      <c r="B468" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C468" s="1" t="s">
         <v>814</v>
       </c>
@@ -21284,6 +21559,9 @@
       <c r="A469" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="B469" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C469" s="1" t="s">
         <v>814</v>
       </c>
@@ -21313,6 +21591,9 @@
       <c r="A470" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="B470" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C470" s="1" t="s">
         <v>814</v>
       </c>
@@ -21345,6 +21626,9 @@
       <c r="A471" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B471" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C471" s="1" t="s">
         <v>814</v>
       </c>
@@ -21377,6 +21661,9 @@
       <c r="A472" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B472" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C472" s="1" t="s">
         <v>814</v>
       </c>
@@ -21409,6 +21696,9 @@
       <c r="A473" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B473" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C473" s="1" t="s">
         <v>814</v>
       </c>
@@ -21441,6 +21731,9 @@
       <c r="A474" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B474" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C474" s="1" t="s">
         <v>814</v>
       </c>
@@ -21473,6 +21766,9 @@
       <c r="A475" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="B475" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C475" s="1" t="s">
         <v>814</v>
       </c>
@@ -21505,6 +21801,9 @@
       <c r="A476" s="1" t="s">
         <v>1305</v>
       </c>
+      <c r="B476" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C476" s="1" t="s">
         <v>814</v>
       </c>
@@ -21537,6 +21836,9 @@
       <c r="A477" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B477" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C477" s="1" t="s">
         <v>814</v>
       </c>
@@ -21575,6 +21877,9 @@
       <c r="A478" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B478" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C478" s="1" t="s">
         <v>814</v>
       </c>
@@ -21604,6 +21909,9 @@
       <c r="A479" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B479" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C479" s="1" t="s">
         <v>814</v>
       </c>
@@ -21636,6 +21944,9 @@
       <c r="A480" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="B480" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C480" s="1" t="s">
         <v>814</v>
       </c>
@@ -21668,6 +21979,9 @@
       <c r="A481" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B481" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C481" s="1" t="s">
         <v>814</v>
       </c>
@@ -21703,6 +22017,9 @@
       <c r="A482" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B482" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C482" s="1" t="s">
         <v>814</v>
       </c>
@@ -21735,6 +22052,9 @@
       <c r="A483" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B483" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C483" s="1" t="s">
         <v>814</v>
       </c>
@@ -21767,6 +22087,9 @@
       <c r="A484" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B484" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C484" s="1" t="s">
         <v>814</v>
       </c>
@@ -21799,6 +22122,9 @@
       <c r="A485" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B485" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C485" s="1" t="s">
         <v>814</v>
       </c>
@@ -21831,6 +22157,9 @@
       <c r="A486" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B486" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C486" s="1" t="s">
         <v>814</v>
       </c>
@@ -21863,6 +22192,9 @@
       <c r="A487" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B487" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C487" s="1" t="s">
         <v>814</v>
       </c>
@@ -21898,6 +22230,9 @@
       <c r="A488" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B488" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C488" s="1" t="s">
         <v>814</v>
       </c>
@@ -21927,6 +22262,9 @@
       <c r="A489" s="1" t="s">
         <v>1275</v>
       </c>
+      <c r="B489" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C489" s="1" t="s">
         <v>814</v>
       </c>
@@ -21959,6 +22297,9 @@
       <c r="A490" s="1" t="s">
         <v>1270</v>
       </c>
+      <c r="B490" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C490" s="1" t="s">
         <v>814</v>
       </c>
@@ -21991,6 +22332,9 @@
       <c r="A491" s="1" t="s">
         <v>1270</v>
       </c>
+      <c r="B491" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C491" s="1" t="s">
         <v>814</v>
       </c>
@@ -22026,6 +22370,9 @@
       <c r="A492" s="1" t="s">
         <v>1280</v>
       </c>
+      <c r="B492" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C492" s="1" t="s">
         <v>814</v>
       </c>
@@ -22058,6 +22405,9 @@
       <c r="A493" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B493" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C493" s="1" t="s">
         <v>814</v>
       </c>
@@ -22090,6 +22440,9 @@
       <c r="A494" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B494" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C494" s="1" t="s">
         <v>814</v>
       </c>
@@ -22116,6 +22469,9 @@
       <c r="A495" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B495" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C495" s="1" t="s">
         <v>814</v>
       </c>
@@ -22142,6 +22498,9 @@
       <c r="A496" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B496" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C496" s="1" t="s">
         <v>814</v>
       </c>
@@ -22174,6 +22533,9 @@
       <c r="A497" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B497" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C497" s="1" t="s">
         <v>814</v>
       </c>
@@ -22200,6 +22562,9 @@
       <c r="A498" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B498" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C498" s="1" t="s">
         <v>814</v>
       </c>
@@ -22232,6 +22597,9 @@
       <c r="A499" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B499" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C499" s="1" t="s">
         <v>814</v>
       </c>
@@ -22264,6 +22632,9 @@
       <c r="A500" s="1" t="s">
         <v>1271</v>
       </c>
+      <c r="B500" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C500" s="1" t="s">
         <v>814</v>
       </c>
@@ -22296,6 +22667,9 @@
       <c r="A501" s="1" t="s">
         <v>1304</v>
       </c>
+      <c r="B501" s="24" t="s">
+        <v>1551</v>
+      </c>
       <c r="C501" s="1" t="s">
         <v>814</v>
       </c>
@@ -44831,6 +45205,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:R1147">
+    <filterColumn colId="1"/>
     <sortState ref="B2:R2641">
       <sortCondition ref="C1:C2641"/>
     </sortState>
@@ -44844,9 +45219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
